--- a/test/Lista1.xlsx
+++ b/test/Lista1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17021" uniqueCount="8936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17022" uniqueCount="8937">
   <si>
     <t>Reunion</t>
   </si>
@@ -26827,6 +26827,9 @@
   </si>
   <si>
     <t>Lane Delete Lucie | GNW</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -27144,10 +27147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1001"/>
+  <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="M24" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -30338,7 +30341,7 @@
         <v>7982</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -30404,7 +30407,7 @@
         <v>7983</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -30470,7 +30473,7 @@
         <v>7984</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -30536,7 +30539,7 @@
         <v>7985</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -30602,7 +30605,7 @@
         <v>7986</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -30667,8 +30670,11 @@
       <c r="U53" t="s">
         <v>7987</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" t="s">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -30734,7 +30740,7 @@
         <v>7988</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -30800,7 +30806,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -30866,7 +30872,7 @@
         <v>7990</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -30932,7 +30938,7 @@
         <v>7991</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -30998,7 +31004,7 @@
         <v>7992</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -31064,7 +31070,7 @@
         <v>7993</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -31130,7 +31136,7 @@
         <v>7994</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -31196,7 +31202,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -31262,7 +31268,7 @@
         <v>7996</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -31328,7 +31334,7 @@
         <v>7997</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
